--- a/Surgery and Instrument Notes.xlsx
+++ b/Surgery and Instrument Notes.xlsx
@@ -12,7 +12,8 @@
     <workbookView xWindow="640" yWindow="1180" windowWidth="28160" windowHeight="15620" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Notes" sheetId="1" r:id="rId1"/>
+    <sheet name="Time Flow Analysis" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t>Surgery Notes</t>
   </si>
@@ -73,12 +74,107 @@
      - show Dr. James a video on concentric tubes to get the idea
 - wrist needs cable inside so it will be larger diameter</t>
   </si>
+  <si>
+    <t>Tympanoplasty - Narrow ear canal</t>
+  </si>
+  <si>
+    <t>- fellow was being trained
+- may be uncomfortable/unnatural to hold the anaesthesia syringe ready to be injected and inserting into ear canal</t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Tympanoplasty</t>
+  </si>
+  <si>
+    <t>Cleaning out Ear canal</t>
+  </si>
+  <si>
+    <t>injecting anaesthesia</t>
+  </si>
+  <si>
+    <t>Time (min)</t>
+  </si>
+  <si>
+    <t>hair trimming</t>
+  </si>
+  <si>
+    <t>cleaning edges of perforation</t>
+  </si>
+  <si>
+    <t>making skin incision</t>
+  </si>
+  <si>
+    <t>raising flap</t>
+  </si>
+  <si>
+    <t>preparing graft</t>
+  </si>
+  <si>
+    <t>placing graft</t>
+  </si>
+  <si>
+    <t>replacing flap</t>
+  </si>
+  <si>
+    <t>packing ear canal</t>
+  </si>
+  <si>
+    <t>Date/notes</t>
+  </si>
+  <si>
+    <t>trainee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- switched out instruments with cleaning edges of perforation step many times: panetti curved suction, blade, rosen, forceps, angled forceps, </t>
+  </si>
+  <si>
+    <t>noisy suction pedal - need to find a quote for a less noisy one</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- rosen needle has nice curvature, if it could slice this would be easier - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">sharp edge rosen needle
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- curved panetti suction - what angle of curvature?? - determine using workspace study, and what is the angle between ear canal and umbo?</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -88,6 +184,14 @@
     </font>
     <font>
       <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -114,11 +218,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -127,6 +231,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -404,10 +509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="D2" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -415,7 +520,7 @@
     <col min="2" max="2" width="26.33203125" style="4" customWidth="1"/>
     <col min="3" max="3" width="58.6640625" customWidth="1"/>
     <col min="4" max="4" width="66.83203125" customWidth="1"/>
-    <col min="5" max="5" width="54.6640625" customWidth="1"/>
+    <col min="5" max="5" width="67.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" ht="26" x14ac:dyDescent="0.3">
@@ -463,6 +568,184 @@
         <v>10</v>
       </c>
     </row>
+    <row r="5" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>42633</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:H12"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.5" customWidth="1"/>
+    <col min="2" max="2" width="30.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="2">
+        <v>42633</v>
+      </c>
+      <c r="E3" s="2">
+        <v>42633</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5">
+        <v>9</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8">
+        <v>43</v>
+      </c>
+      <c r="F8">
+        <f>53-35</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10">
+        <v>7</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Surgery and Instrument Notes.xlsx
+++ b/Surgery and Instrument Notes.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1180" windowWidth="28160" windowHeight="15620" tabRatio="500"/>
+    <workbookView xWindow="4940" yWindow="460" windowWidth="28800" windowHeight="16260" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="32">
   <si>
     <t>Surgery Notes</t>
   </si>
@@ -85,49 +85,13 @@
     <t>Step</t>
   </si>
   <si>
-    <t>Time</t>
-  </si>
-  <si>
     <t>Tympanoplasty</t>
   </si>
   <si>
-    <t>Cleaning out Ear canal</t>
-  </si>
-  <si>
-    <t>injecting anaesthesia</t>
-  </si>
-  <si>
     <t>Time (min)</t>
   </si>
   <si>
-    <t>hair trimming</t>
-  </si>
-  <si>
-    <t>cleaning edges of perforation</t>
-  </si>
-  <si>
-    <t>making skin incision</t>
-  </si>
-  <si>
-    <t>raising flap</t>
-  </si>
-  <si>
-    <t>preparing graft</t>
-  </si>
-  <si>
-    <t>placing graft</t>
-  </si>
-  <si>
-    <t>replacing flap</t>
-  </si>
-  <si>
-    <t>packing ear canal</t>
-  </si>
-  <si>
     <t>Date/notes</t>
-  </si>
-  <si>
-    <t>trainee</t>
   </si>
   <si>
     <t xml:space="preserve">- switched out instruments with cleaning edges of perforation step many times: panetti curved suction, blade, rosen, forceps, angled forceps, </t>
@@ -162,19 +126,48 @@
       <t>- curved panetti suction - what angle of curvature?? - determine using workspace study, and what is the angle between ear canal and umbo?</t>
     </r>
   </si>
+  <si>
+    <t>Cleaning Out Ear canal</t>
+  </si>
+  <si>
+    <t>Injecting Anaesthesia</t>
+  </si>
+  <si>
+    <t>Hair Trimming</t>
+  </si>
+  <si>
+    <t>Cleaning Edges of Perforation</t>
+  </si>
+  <si>
+    <t>Making Skin Incision</t>
+  </si>
+  <si>
+    <t>Raising Flap</t>
+  </si>
+  <si>
+    <t>Preparing Graft</t>
+  </si>
+  <si>
+    <t>Placing Graft</t>
+  </si>
+  <si>
+    <t>Replacing Flap</t>
+  </si>
+  <si>
+    <t>Packing Ear Canal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surgery: </t>
+  </si>
+  <si>
+    <t>Cholesteatoma Removal</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -197,13 +190,42 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -215,14 +237,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -232,8 +258,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -511,7 +542,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D2" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -579,15 +610,15 @@
         <v>12</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D6" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -597,156 +628,186 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H12"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.5" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
     <col min="2" max="2" width="30.5" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="2">
-        <v>42633</v>
-      </c>
-      <c r="E3" s="2">
-        <v>42633</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5">
-        <v>9</v>
-      </c>
-      <c r="F5">
-        <v>2</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7">
-        <v>4</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8">
-        <v>43</v>
-      </c>
-      <c r="F8">
-        <f>53-35</f>
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10">
-        <v>7</v>
-      </c>
-      <c r="F10">
-        <v>2</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
-      <c r="F11">
-        <v>3</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
         <v>26</v>
       </c>
-      <c r="D12">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/Surgery and Instrument Notes.xlsx
+++ b/Surgery and Instrument Notes.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4940" yWindow="460" windowWidth="28800" windowHeight="16260" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="2580" yWindow="540" windowWidth="28800" windowHeight="16260" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="35">
   <si>
     <t>Surgery Notes</t>
   </si>
@@ -161,6 +161,15 @@
   </si>
   <si>
     <t>Cholesteatoma Removal</t>
+  </si>
+  <si>
+    <t>small ear canal</t>
+  </si>
+  <si>
+    <t>did post-auricular because small ear canal and camera/focus issues</t>
+  </si>
+  <si>
+    <t>trainee</t>
   </si>
 </sst>
 </file>
@@ -631,7 +640,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -675,42 +684,116 @@
       <c r="B3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3">
+        <v>8</v>
+      </c>
       <c r="E3" s="2"/>
+      <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="G3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3">
+        <v>4</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>21</v>
       </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>22</v>
       </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5">
+        <v>8</v>
+      </c>
+      <c r="G5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>23</v>
       </c>
+      <c r="D6">
+        <v>19</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>24</v>
       </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>25</v>
       </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+      <c r="G8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8">
+        <v>26</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>26</v>
       </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>27</v>
+      </c>
+      <c r="F10">
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
